--- a/data/destinations.xlsx
+++ b/data/destinations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristanbains/Desktop/Projects/Flask/Flask_Vakantieweer/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD8CFD8-4127-E24A-9A9F-3612EE0DB23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52087D6-C3FB-6A4D-ADC1-27B14951E575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="500" windowWidth="14380" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="20500" windowHeight="25940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Destinations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="282">
   <si>
     <t>Country</t>
   </si>
@@ -49,6 +49,24 @@
     <t>Popular</t>
   </si>
   <si>
+    <t>Superpopular</t>
+  </si>
+  <si>
+    <t>Country_EN</t>
+  </si>
+  <si>
+    <t>Place_EN</t>
+  </si>
+  <si>
+    <t>Region_EN</t>
+  </si>
+  <si>
+    <t>Continent</t>
+  </si>
+  <si>
+    <t>Continent_EN</t>
+  </si>
+  <si>
     <t>Egypte</t>
   </si>
   <si>
@@ -61,6 +79,18 @@
     <t>b</t>
   </si>
   <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Afrika</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
     <t>Cairo</t>
   </si>
   <si>
@@ -79,6 +109,9 @@
     <t>Rode Zee</t>
   </si>
   <si>
+    <t>Red Sea</t>
+  </si>
+  <si>
     <t>Luxor</t>
   </si>
   <si>
@@ -100,9 +133,21 @@
     <t>Agistri</t>
   </si>
   <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
     <t>Athene</t>
   </si>
   <si>
+    <t>Athens</t>
+  </si>
+  <si>
     <t>Chalkidiki</t>
   </si>
   <si>
@@ -121,6 +166,9 @@
     <t>Heraklion</t>
   </si>
   <si>
+    <t>Kalamata</t>
+  </si>
+  <si>
     <t>Karpathos</t>
   </si>
   <si>
@@ -139,6 +187,9 @@
     <t>Kreta</t>
   </si>
   <si>
+    <t>Crete</t>
+  </si>
+  <si>
     <t>Lefkas</t>
   </si>
   <si>
@@ -175,6 +226,9 @@
     <t>Rhodos</t>
   </si>
   <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
     <t>Saloniki</t>
   </si>
   <si>
@@ -184,6 +238,9 @@
     <t>Santorini</t>
   </si>
   <si>
+    <t>Sitia</t>
+  </si>
+  <si>
     <t>Skiathos</t>
   </si>
   <si>
@@ -208,6 +265,15 @@
     <t>Bali</t>
   </si>
   <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Azië</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
     <t>Balikpapan</t>
   </si>
   <si>
@@ -259,6 +325,9 @@
     <t>Bardolino</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
     <t>Bari</t>
   </si>
   <si>
@@ -289,18 +358,27 @@
     <t>Comomeer</t>
   </si>
   <si>
+    <t>Lake Como</t>
+  </si>
+  <si>
     <t>Florence</t>
   </si>
   <si>
     <t>Gardameer</t>
   </si>
   <si>
+    <t>Lake Garda</t>
+  </si>
+  <si>
     <t>Genua</t>
   </si>
   <si>
     <t>Lago Maggiore</t>
   </si>
   <si>
+    <t>Lake Maggiore</t>
+  </si>
+  <si>
     <t>Livigno</t>
   </si>
   <si>
@@ -310,9 +388,15 @@
     <t>Milaan</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Napels</t>
   </si>
   <si>
+    <t>Naples</t>
+  </si>
+  <si>
     <t>Ortisei</t>
   </si>
   <si>
@@ -325,6 +409,9 @@
     <t>Piemonte</t>
   </si>
   <si>
+    <t>Piedmont</t>
+  </si>
+  <si>
     <t>Pisa</t>
   </si>
   <si>
@@ -334,6 +421,9 @@
     <t>Puglia</t>
   </si>
   <si>
+    <t>Apulia</t>
+  </si>
+  <si>
     <t>Rimini</t>
   </si>
   <si>
@@ -343,9 +433,15 @@
     <t>Sardinië</t>
   </si>
   <si>
+    <t>Sardinia</t>
+  </si>
+  <si>
     <t>Sicilië</t>
   </si>
   <si>
+    <t>Sicily</t>
+  </si>
+  <si>
     <t>Siena</t>
   </si>
   <si>
@@ -355,15 +451,24 @@
     <t>Toscane</t>
   </si>
   <si>
+    <t>Tuscany</t>
+  </si>
+  <si>
     <t>Trento</t>
   </si>
   <si>
     <t>Turijn</t>
   </si>
   <si>
+    <t>Turin</t>
+  </si>
+  <si>
     <t>Venetië</t>
   </si>
   <si>
+    <t>Venice</t>
+  </si>
+  <si>
     <t>Verona</t>
   </si>
   <si>
@@ -373,12 +478,24 @@
     <t>Ede</t>
   </si>
   <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
     <t>Nederlandse Antillen</t>
   </si>
   <si>
     <t>Bonaire</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>Caribisch gebied</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
     <t>Curacao</t>
   </si>
   <si>
@@ -400,6 +517,9 @@
     <t>Azoren</t>
   </si>
   <si>
+    <t>Azores</t>
+  </si>
+  <si>
     <t>Braga</t>
   </si>
   <si>
@@ -436,6 +556,9 @@
     <t>Lissabon</t>
   </si>
   <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
     <t>Madeira</t>
   </si>
   <si>
@@ -445,6 +568,9 @@
     <t>Nazare</t>
   </si>
   <si>
+    <t>Ponta Delgada</t>
+  </si>
+  <si>
     <t>Portimao</t>
   </si>
   <si>
@@ -463,6 +589,9 @@
     <t>br</t>
   </si>
   <si>
+    <t>Spain</t>
+  </si>
+  <si>
     <t>Almeria</t>
   </si>
   <si>
@@ -520,6 +649,9 @@
     <t>Fuengirola</t>
   </si>
   <si>
+    <t>Fuerteventura</t>
+  </si>
+  <si>
     <t>Girona</t>
   </si>
   <si>
@@ -571,24 +703,33 @@
     <t>Palma de Mallorca</t>
   </si>
   <si>
+    <t>Playa de Santiago</t>
+  </si>
+  <si>
     <t>Rojales</t>
   </si>
   <si>
     <t>Salou</t>
   </si>
   <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
     <t>Sevilla</t>
   </si>
   <si>
+    <t>Seville</t>
+  </si>
+  <si>
     <t>Sitges</t>
   </si>
   <si>
     <t>Tarragona</t>
   </si>
   <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
     <t>Torremolinos</t>
   </si>
   <si>
@@ -610,6 +751,9 @@
     <t>Alanya</t>
   </si>
   <si>
+    <t>Turkey</t>
+  </si>
+  <si>
     <t>Ankara</t>
   </si>
   <si>
@@ -661,28 +805,67 @@
     <t>Side</t>
   </si>
   <si>
-    <t>Kalamata</t>
-  </si>
-  <si>
-    <t>Sitia</t>
-  </si>
-  <si>
-    <t>Ponta Delgada</t>
-  </si>
-  <si>
-    <t>Santa Cruz de Tenerife</t>
-  </si>
-  <si>
-    <t>Playa de Santiago</t>
-  </si>
-  <si>
-    <t>Fuerteventura</t>
-  </si>
-  <si>
-    <t>Superpopular</t>
-  </si>
-  <si>
     <t>Santiago de Compostela</t>
+  </si>
+  <si>
+    <t>Zeeland</t>
+  </si>
+  <si>
+    <t>streek</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Texel</t>
+  </si>
+  <si>
+    <t>eiland</t>
+  </si>
+  <si>
+    <t>Terschelling</t>
+  </si>
+  <si>
+    <t>Ameland</t>
+  </si>
+  <si>
+    <t>Vlieland</t>
+  </si>
+  <si>
+    <t>Schiermonnikoog</t>
+  </si>
+  <si>
+    <t>Drenthe</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Maastricht</t>
+  </si>
+  <si>
+    <t>Valkenburg</t>
+  </si>
+  <si>
+    <t>Den Bosch</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Den Haag</t>
+  </si>
+  <si>
+    <t>The Hague</t>
+  </si>
+  <si>
+    <t>Zandvoort</t>
   </si>
 </sst>
 </file>
@@ -712,7 +895,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -735,27 +918,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1060,15 +1229,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:O208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="K190" sqref="K190"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,19 +1265,34 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>31.199180599999998</v>
@@ -1120,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1128,16 +1312,28 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>30.0443879</v>
@@ -1149,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1157,16 +1353,28 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>28.496363299999999</v>
@@ -1178,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1186,16 +1394,28 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>27.398926599999999</v>
@@ -1207,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1215,19 +1435,31 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>27.222556000000001</v>
@@ -1239,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1247,16 +1479,31 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>25.702096000000001</v>
@@ -1268,24 +1515,36 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>26.979300200000001</v>
@@ -1297,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1305,19 +1564,31 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>25.069991999999999</v>
@@ -1329,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1337,19 +1608,31 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>27.864442199999999</v>
@@ -1361,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1369,16 +1652,28 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>37.693703900000003</v>
@@ -1390,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1398,16 +1693,28 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>37.975564800000001</v>
@@ -1419,7 +1726,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1427,16 +1734,28 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>40.330962749999998</v>
@@ -1448,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1456,16 +1775,28 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>35.308168000000002</v>
@@ -1477,24 +1808,36 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>38.375813149999999</v>
@@ -1506,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1514,16 +1857,28 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>39.591337000000003</v>
@@ -1535,24 +1890,36 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>36.340314599999999</v>
@@ -1564,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1572,16 +1939,28 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>35.339080000000003</v>
@@ -1593,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1601,16 +1980,28 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>37.037271400000002</v>
@@ -1622,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1630,16 +2021,28 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>35.613661100000002</v>
@@ -1651,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1659,16 +2062,28 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>38.266032199999998</v>
@@ -1680,24 +2095,36 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>37.778489499999999</v>
@@ -1709,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1717,16 +2144,28 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>36.793693249999997</v>
@@ -1738,7 +2177,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1746,16 +2185,28 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>35.308495200000003</v>
@@ -1767,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1775,16 +2226,28 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>38.706573400000003</v>
@@ -1796,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1804,16 +2267,28 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>56</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>39.175841849999998</v>
@@ -1825,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1833,16 +2308,28 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>39.9088688</v>
@@ -1854,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1862,16 +2349,28 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" t="s">
+        <v>38</v>
+      </c>
+      <c r="O27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>35.282667699999998</v>
@@ -1883,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1891,16 +2390,28 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+      <c r="O28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E29">
         <v>37.45139365</v>
@@ -1912,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1920,16 +2431,28 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>37.06001045</v>
@@ -1941,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1949,16 +2472,28 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>38.716610699999997</v>
@@ -1970,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1978,16 +2513,28 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>39.285257199999997</v>
@@ -1999,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2007,16 +2554,28 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" t="s">
+        <v>64</v>
+      </c>
+      <c r="N32" t="s">
+        <v>38</v>
+      </c>
+      <c r="O32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>35.3676472</v>
@@ -2028,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2036,16 +2595,28 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>36.172529750000002</v>
@@ -2057,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2065,16 +2636,28 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" t="s">
+        <v>38</v>
+      </c>
+      <c r="O34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>40.6403167</v>
@@ -2086,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2094,16 +2677,28 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
+        <v>69</v>
+      </c>
+      <c r="N35" t="s">
+        <v>38</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>37.724616150000003</v>
@@ -2115,7 +2710,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -2123,16 +2718,28 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" t="s">
+        <v>70</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>36.407111200000003</v>
@@ -2144,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -2152,16 +2759,28 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L37" t="s">
+        <v>71</v>
+      </c>
+      <c r="N37" t="s">
+        <v>38</v>
+      </c>
+      <c r="O37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>35.2066248</v>
@@ -2173,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2181,16 +2800,28 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+      <c r="O38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E39">
         <v>39.169298499999996</v>
@@ -2202,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2210,16 +2841,28 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>35.293942999999999</v>
@@ -2231,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2239,16 +2882,28 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40" t="s">
+        <v>74</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>37.438510049999998</v>
@@ -2260,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2268,16 +2923,28 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>75</v>
+      </c>
+      <c r="N41" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>40.684447900000002</v>
@@ -2289,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2297,16 +2964,28 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" t="s">
+        <v>38</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>40.6403167</v>
@@ -2318,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2326,16 +3005,28 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" t="s">
+        <v>38</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E44">
         <v>37.789138450000003</v>
@@ -2347,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2355,16 +3046,28 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L44" t="s">
+        <v>78</v>
+      </c>
+      <c r="N44" t="s">
+        <v>38</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45">
         <v>-8.2271303000000007</v>
@@ -2376,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2384,16 +3087,28 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L45" t="s">
+        <v>80</v>
+      </c>
+      <c r="N45" t="s">
+        <v>82</v>
+      </c>
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E46">
         <v>-1.2398711</v>
@@ -2405,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2413,16 +3128,28 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>81</v>
+      </c>
+      <c r="L46" t="s">
+        <v>84</v>
+      </c>
+      <c r="N46" t="s">
+        <v>82</v>
+      </c>
+      <c r="O46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>-6.9215529</v>
@@ -2434,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2442,16 +3169,28 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>81</v>
+      </c>
+      <c r="L47" t="s">
+        <v>85</v>
+      </c>
+      <c r="N47" t="s">
+        <v>82</v>
+      </c>
+      <c r="O47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E48">
         <v>3.5493171999999999</v>
@@ -2463,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2471,19 +3210,31 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>81</v>
+      </c>
+      <c r="L48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" t="s">
+        <v>82</v>
+      </c>
+      <c r="O48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E49">
         <v>-8.6524973000000003</v>
@@ -2495,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2503,16 +3254,31 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" t="s">
+        <v>88</v>
+      </c>
+      <c r="M49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N49" t="s">
+        <v>82</v>
+      </c>
+      <c r="O49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E50">
         <v>-8.5099860500000002</v>
@@ -2524,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2532,16 +3298,28 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" t="s">
+        <v>89</v>
+      </c>
+      <c r="N50" t="s">
+        <v>82</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>-6.1754049000000002</v>
@@ -2553,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2561,16 +3339,28 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51" t="s">
+        <v>81</v>
+      </c>
+      <c r="L51" t="s">
+        <v>90</v>
+      </c>
+      <c r="N51" t="s">
+        <v>82</v>
+      </c>
+      <c r="O51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E52">
         <v>-8.5835637499999997</v>
@@ -2582,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2590,16 +3380,28 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L52" t="s">
+        <v>92</v>
+      </c>
+      <c r="N52" t="s">
+        <v>82</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E53">
         <v>-5.1342961999999996</v>
@@ -2611,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -2619,16 +3421,28 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53" t="s">
+        <v>81</v>
+      </c>
+      <c r="L53" t="s">
+        <v>93</v>
+      </c>
+      <c r="N53" t="s">
+        <v>82</v>
+      </c>
+      <c r="O53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>3.5896653999999999</v>
@@ -2640,7 +3454,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -2648,19 +3462,31 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" t="s">
+        <v>82</v>
+      </c>
+      <c r="O54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E55">
         <v>-8.6831727999999995</v>
@@ -2672,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -2680,16 +3506,31 @@
       <c r="J55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55" t="s">
+        <v>81</v>
+      </c>
+      <c r="L55" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55" t="s">
+        <v>80</v>
+      </c>
+      <c r="N55" t="s">
+        <v>82</v>
+      </c>
+      <c r="O55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E56">
         <v>-3.1169403</v>
@@ -2701,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -2709,19 +3550,31 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s">
+        <v>82</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E57">
         <v>-8.5068976999999997</v>
@@ -2733,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -2741,16 +3594,31 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" t="s">
+        <v>97</v>
+      </c>
+      <c r="M57" t="s">
+        <v>80</v>
+      </c>
+      <c r="N57" t="s">
+        <v>82</v>
+      </c>
+      <c r="O57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E58">
         <v>-7.9778384000000004</v>
@@ -2762,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -2770,16 +3638,28 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>81</v>
+      </c>
+      <c r="L58" t="s">
+        <v>98</v>
+      </c>
+      <c r="N58" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E59">
         <v>45.547559499999998</v>
@@ -2791,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -2799,16 +3679,28 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59" t="s">
+        <v>101</v>
+      </c>
+      <c r="L59" t="s">
+        <v>100</v>
+      </c>
+      <c r="N59" t="s">
+        <v>38</v>
+      </c>
+      <c r="O59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>41.125784299999999</v>
@@ -2820,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -2828,16 +3720,28 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>101</v>
+      </c>
+      <c r="L60" t="s">
+        <v>102</v>
+      </c>
+      <c r="N60" t="s">
+        <v>38</v>
+      </c>
+      <c r="O60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E61">
         <v>44.493820300000003</v>
@@ -2849,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -2857,16 +3761,28 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61" t="s">
+        <v>101</v>
+      </c>
+      <c r="L61" t="s">
+        <v>103</v>
+      </c>
+      <c r="N61" t="s">
+        <v>38</v>
+      </c>
+      <c r="O61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>40.635919749999999</v>
@@ -2878,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -2886,16 +3802,28 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" t="s">
+        <v>104</v>
+      </c>
+      <c r="N62" t="s">
+        <v>38</v>
+      </c>
+      <c r="O62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>39.056597400000001</v>
@@ -2907,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -2915,16 +3843,28 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63" t="s">
+        <v>101</v>
+      </c>
+      <c r="L63" t="s">
+        <v>105</v>
+      </c>
+      <c r="N63" t="s">
+        <v>38</v>
+      </c>
+      <c r="O63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E64">
         <v>45.991522699999997</v>
@@ -2936,7 +3876,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -2944,16 +3884,28 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64" t="s">
+        <v>101</v>
+      </c>
+      <c r="L64" t="s">
+        <v>106</v>
+      </c>
+      <c r="N64" t="s">
+        <v>38</v>
+      </c>
+      <c r="O64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E65">
         <v>46.061807700000003</v>
@@ -2965,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -2973,16 +3925,28 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65" t="s">
+        <v>101</v>
+      </c>
+      <c r="L65" t="s">
+        <v>107</v>
+      </c>
+      <c r="N65" t="s">
+        <v>38</v>
+      </c>
+      <c r="O65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E66">
         <v>45.597914699999997</v>
@@ -2994,7 +3958,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3002,16 +3966,28 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66" t="s">
+        <v>101</v>
+      </c>
+      <c r="L66" t="s">
+        <v>108</v>
+      </c>
+      <c r="N66" t="s">
+        <v>38</v>
+      </c>
+      <c r="O66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E67">
         <v>44.122214399999997</v>
@@ -3023,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3031,16 +4007,28 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67" t="s">
+        <v>101</v>
+      </c>
+      <c r="L67" t="s">
+        <v>110</v>
+      </c>
+      <c r="N67" t="s">
+        <v>38</v>
+      </c>
+      <c r="O67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E68">
         <v>45.991758900000001</v>
@@ -3052,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3060,16 +4048,28 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68" t="s">
+        <v>101</v>
+      </c>
+      <c r="L68" t="s">
+        <v>112</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
+      <c r="O68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E69">
         <v>43.769795500000001</v>
@@ -3081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -3089,16 +4089,28 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69" t="s">
+        <v>101</v>
+      </c>
+      <c r="L69" t="s">
+        <v>113</v>
+      </c>
+      <c r="N69" t="s">
+        <v>38</v>
+      </c>
+      <c r="O69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E70">
         <v>45.662431349999999</v>
@@ -3110,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -3118,16 +4130,28 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" t="s">
+        <v>115</v>
+      </c>
+      <c r="N70" t="s">
+        <v>38</v>
+      </c>
+      <c r="O70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>44.407260000000001</v>
@@ -3139,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3147,16 +4171,28 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71" t="s">
+        <v>101</v>
+      </c>
+      <c r="L71" t="s">
+        <v>116</v>
+      </c>
+      <c r="N71" t="s">
+        <v>38</v>
+      </c>
+      <c r="O71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E72">
         <v>45.9510936</v>
@@ -3168,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3176,16 +4212,28 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72" t="s">
+        <v>101</v>
+      </c>
+      <c r="L72" t="s">
+        <v>118</v>
+      </c>
+      <c r="N72" t="s">
+        <v>38</v>
+      </c>
+      <c r="O72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>46.538173399999998</v>
@@ -3197,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3205,16 +4253,28 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73" t="s">
+        <v>101</v>
+      </c>
+      <c r="L73" t="s">
+        <v>119</v>
+      </c>
+      <c r="N73" t="s">
+        <v>38</v>
+      </c>
+      <c r="O73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="D74" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E74">
         <v>46.669554699999999</v>
@@ -3226,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3234,16 +4294,28 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74" t="s">
+        <v>101</v>
+      </c>
+      <c r="L74" t="s">
+        <v>120</v>
+      </c>
+      <c r="N74" t="s">
+        <v>38</v>
+      </c>
+      <c r="O74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E75">
         <v>45.464194300000003</v>
@@ -3255,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -3263,16 +4335,28 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75" t="s">
+        <v>101</v>
+      </c>
+      <c r="L75" t="s">
+        <v>122</v>
+      </c>
+      <c r="N75" t="s">
+        <v>38</v>
+      </c>
+      <c r="O75" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>40.8358846</v>
@@ -3284,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3292,16 +4376,28 @@
       <c r="J76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76" t="s">
+        <v>101</v>
+      </c>
+      <c r="L76" t="s">
+        <v>124</v>
+      </c>
+      <c r="N76" t="s">
+        <v>38</v>
+      </c>
+      <c r="O76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E77">
         <v>46.5752077</v>
@@ -3313,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3321,16 +4417,28 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77" t="s">
+        <v>101</v>
+      </c>
+      <c r="L77" t="s">
+        <v>125</v>
+      </c>
+      <c r="N77" t="s">
+        <v>38</v>
+      </c>
+      <c r="O77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="D78" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E78">
         <v>42.3102619</v>
@@ -3342,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -3350,16 +4458,28 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78" t="s">
+        <v>101</v>
+      </c>
+      <c r="L78" t="s">
+        <v>126</v>
+      </c>
+      <c r="N78" t="s">
+        <v>38</v>
+      </c>
+      <c r="O78" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D79" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>43.275205800000002</v>
@@ -3371,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -3379,16 +4499,28 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>101</v>
+      </c>
+      <c r="L79" t="s">
+        <v>127</v>
+      </c>
+      <c r="N79" t="s">
+        <v>38</v>
+      </c>
+      <c r="O79" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E80">
         <v>45.060735000000001</v>
@@ -3400,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -3408,16 +4540,28 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>101</v>
+      </c>
+      <c r="L80" t="s">
+        <v>129</v>
+      </c>
+      <c r="N80" t="s">
+        <v>38</v>
+      </c>
+      <c r="O80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>43.471472200000001</v>
@@ -3429,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3437,16 +4581,28 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>101</v>
+      </c>
+      <c r="L81" t="s">
+        <v>130</v>
+      </c>
+      <c r="N81" t="s">
+        <v>38</v>
+      </c>
+      <c r="O81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E82">
         <v>46.036071499999998</v>
@@ -3458,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -3466,16 +4622,28 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>101</v>
+      </c>
+      <c r="L82" t="s">
+        <v>131</v>
+      </c>
+      <c r="N82" t="s">
+        <v>38</v>
+      </c>
+      <c r="O82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="D83" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E83">
         <v>40.984253899999999</v>
@@ -3487,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -3495,16 +4663,28 @@
       <c r="J83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83" t="s">
+        <v>101</v>
+      </c>
+      <c r="L83" t="s">
+        <v>133</v>
+      </c>
+      <c r="N83" t="s">
+        <v>38</v>
+      </c>
+      <c r="O83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E84">
         <v>43.946543249999998</v>
@@ -3516,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3524,16 +4704,28 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84" t="s">
+        <v>101</v>
+      </c>
+      <c r="L84" t="s">
+        <v>134</v>
+      </c>
+      <c r="N84" t="s">
+        <v>38</v>
+      </c>
+      <c r="O84" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E85">
         <v>41.893320299999999</v>
@@ -3545,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3553,16 +4745,28 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85" t="s">
+        <v>101</v>
+      </c>
+      <c r="L85" t="s">
+        <v>135</v>
+      </c>
+      <c r="N85" t="s">
+        <v>38</v>
+      </c>
+      <c r="O85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>40.091281299999999</v>
@@ -3574,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3582,16 +4786,28 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86" t="s">
+        <v>101</v>
+      </c>
+      <c r="L86" t="s">
+        <v>137</v>
+      </c>
+      <c r="N86" t="s">
+        <v>38</v>
+      </c>
+      <c r="O86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E87">
         <v>37.587794000000002</v>
@@ -3603,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3611,16 +4827,28 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87" t="s">
+        <v>101</v>
+      </c>
+      <c r="L87" t="s">
+        <v>139</v>
+      </c>
+      <c r="N87" t="s">
+        <v>38</v>
+      </c>
+      <c r="O87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>43.167205950000003</v>
@@ -3632,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -3640,16 +4868,28 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>101</v>
+      </c>
+      <c r="L88" t="s">
+        <v>140</v>
+      </c>
+      <c r="N88" t="s">
+        <v>38</v>
+      </c>
+      <c r="O88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E89">
         <v>40.624906000000003</v>
@@ -3661,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -3669,16 +4909,28 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89" t="s">
+        <v>101</v>
+      </c>
+      <c r="L89" t="s">
+        <v>141</v>
+      </c>
+      <c r="N89" t="s">
+        <v>38</v>
+      </c>
+      <c r="O89" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E90">
         <v>43.458654099999997</v>
@@ -3690,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3698,16 +4950,28 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>101</v>
+      </c>
+      <c r="L90" t="s">
+        <v>143</v>
+      </c>
+      <c r="N90" t="s">
+        <v>38</v>
+      </c>
+      <c r="O90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>46.102953599999999</v>
@@ -3719,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -3727,16 +4991,28 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>101</v>
+      </c>
+      <c r="L91" t="s">
+        <v>144</v>
+      </c>
+      <c r="N91" t="s">
+        <v>38</v>
+      </c>
+      <c r="O91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>45.067755099999999</v>
@@ -3748,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -3756,16 +5032,28 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>101</v>
+      </c>
+      <c r="L92" t="s">
+        <v>146</v>
+      </c>
+      <c r="N92" t="s">
+        <v>38</v>
+      </c>
+      <c r="O92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E93">
         <v>45.437190800000003</v>
@@ -3777,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -3785,16 +5073,28 @@
       <c r="J93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93" t="s">
+        <v>101</v>
+      </c>
+      <c r="L93" t="s">
+        <v>148</v>
+      </c>
+      <c r="N93" t="s">
+        <v>38</v>
+      </c>
+      <c r="O93" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E94">
         <v>45.442497699999997</v>
@@ -3806,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -3814,13 +5114,25 @@
       <c r="J94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94" t="s">
+        <v>101</v>
+      </c>
+      <c r="L94" t="s">
+        <v>149</v>
+      </c>
+      <c r="N94" t="s">
+        <v>38</v>
+      </c>
+      <c r="O94" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E95">
         <v>52.071682549999998</v>
@@ -3832,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -3840,16 +5152,28 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95" t="s">
+        <v>152</v>
+      </c>
+      <c r="L95" t="s">
+        <v>151</v>
+      </c>
+      <c r="N95" t="s">
+        <v>38</v>
+      </c>
+      <c r="O95" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E96">
         <v>12.167</v>
@@ -3861,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -3869,16 +5193,28 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96" t="s">
+        <v>155</v>
+      </c>
+      <c r="L96" t="s">
+        <v>154</v>
+      </c>
+      <c r="N96" t="s">
+        <v>156</v>
+      </c>
+      <c r="O96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E97">
         <v>12.1845</v>
@@ -3890,7 +5226,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -3898,19 +5234,31 @@
       <c r="J97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97" t="s">
+        <v>155</v>
+      </c>
+      <c r="L97" t="s">
+        <v>158</v>
+      </c>
+      <c r="N97" t="s">
+        <v>156</v>
+      </c>
+      <c r="O97" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E98">
         <v>37.088240999999996</v>
@@ -3922,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -3930,16 +5278,31 @@
       <c r="J98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98" t="s">
+        <v>159</v>
+      </c>
+      <c r="L98" t="s">
+        <v>160</v>
+      </c>
+      <c r="M98" t="s">
+        <v>161</v>
+      </c>
+      <c r="N98" t="s">
+        <v>38</v>
+      </c>
+      <c r="O98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E99">
         <v>37.315154900000003</v>
@@ -3951,7 +5314,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -3959,16 +5322,28 @@
       <c r="J99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99" t="s">
+        <v>159</v>
+      </c>
+      <c r="L99" t="s">
+        <v>162</v>
+      </c>
+      <c r="N99" t="s">
+        <v>38</v>
+      </c>
+      <c r="O99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E100">
         <v>37.1042384</v>
@@ -3980,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -3988,16 +5363,28 @@
       <c r="J100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100" t="s">
+        <v>159</v>
+      </c>
+      <c r="L100" t="s">
+        <v>163</v>
+      </c>
+      <c r="N100" t="s">
+        <v>38</v>
+      </c>
+      <c r="O100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D101" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E101">
         <v>37.808556449999998</v>
@@ -4009,7 +5396,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -4017,16 +5404,28 @@
       <c r="J101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101" t="s">
+        <v>159</v>
+      </c>
+      <c r="L101" t="s">
+        <v>165</v>
+      </c>
+      <c r="N101" t="s">
+        <v>38</v>
+      </c>
+      <c r="O101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E102">
         <v>41.551058300000001</v>
@@ -4038,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -4046,16 +5445,28 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K102" t="s">
+        <v>159</v>
+      </c>
+      <c r="L102" t="s">
+        <v>166</v>
+      </c>
+      <c r="N102" t="s">
+        <v>38</v>
+      </c>
+      <c r="O102" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D103" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E103">
         <v>41.656932650000002</v>
@@ -4067,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -4075,16 +5486,28 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K103" t="s">
+        <v>159</v>
+      </c>
+      <c r="L103" t="s">
+        <v>167</v>
+      </c>
+      <c r="N103" t="s">
+        <v>38</v>
+      </c>
+      <c r="O103" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E104">
         <v>38.696891899999997</v>
@@ -4096,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -4104,16 +5527,28 @@
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K104" t="s">
+        <v>159</v>
+      </c>
+      <c r="L104" t="s">
+        <v>168</v>
+      </c>
+      <c r="N104" t="s">
+        <v>38</v>
+      </c>
+      <c r="O104" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D105" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E105">
         <v>39.976758250000003</v>
@@ -4125,7 +5560,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -4133,16 +5568,28 @@
       <c r="J105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K105" t="s">
+        <v>159</v>
+      </c>
+      <c r="L105" t="s">
+        <v>169</v>
+      </c>
+      <c r="N105" t="s">
+        <v>38</v>
+      </c>
+      <c r="O105" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E106">
         <v>40.211193100000003</v>
@@ -4154,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -4162,16 +5609,28 @@
       <c r="J106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K106" t="s">
+        <v>159</v>
+      </c>
+      <c r="L106" t="s">
+        <v>170</v>
+      </c>
+      <c r="N106" t="s">
+        <v>38</v>
+      </c>
+      <c r="O106" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D107" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E107">
         <v>38.963241099999998</v>
@@ -4183,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -4191,16 +5650,28 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K107" t="s">
+        <v>159</v>
+      </c>
+      <c r="L107" t="s">
+        <v>171</v>
+      </c>
+      <c r="N107" t="s">
+        <v>38</v>
+      </c>
+      <c r="O107" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E108">
         <v>38.709570650000003</v>
@@ -4212,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -4220,19 +5691,31 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K108" t="s">
+        <v>159</v>
+      </c>
+      <c r="L108" t="s">
+        <v>172</v>
+      </c>
+      <c r="N108" t="s">
+        <v>38</v>
+      </c>
+      <c r="O108" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B109" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D109" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E109">
         <v>37.016272700000002</v>
@@ -4244,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -4252,16 +5735,31 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K109" t="s">
+        <v>159</v>
+      </c>
+      <c r="L109" t="s">
+        <v>173</v>
+      </c>
+      <c r="M109" t="s">
+        <v>161</v>
+      </c>
+      <c r="N109" t="s">
+        <v>38</v>
+      </c>
+      <c r="O109" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B110" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E110">
         <v>40.148580799999998</v>
@@ -4273,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -4281,16 +5779,28 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K110" t="s">
+        <v>159</v>
+      </c>
+      <c r="L110" t="s">
+        <v>174</v>
+      </c>
+      <c r="N110" t="s">
+        <v>38</v>
+      </c>
+      <c r="O110" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B111" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E111">
         <v>32.649649699999998</v>
@@ -4302,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -4310,16 +5820,28 @@
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K111" t="s">
+        <v>159</v>
+      </c>
+      <c r="L111" t="s">
+        <v>175</v>
+      </c>
+      <c r="N111" t="s">
+        <v>38</v>
+      </c>
+      <c r="O111" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B112" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E112">
         <v>37.102796400000003</v>
@@ -4331,7 +5853,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -4339,16 +5861,28 @@
       <c r="J112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112" t="s">
+        <v>159</v>
+      </c>
+      <c r="L112" t="s">
+        <v>176</v>
+      </c>
+      <c r="N112" t="s">
+        <v>38</v>
+      </c>
+      <c r="O112" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E113">
         <v>38.707750699999998</v>
@@ -4360,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -4368,16 +5902,28 @@
       <c r="J113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K113" t="s">
+        <v>159</v>
+      </c>
+      <c r="L113" t="s">
+        <v>178</v>
+      </c>
+      <c r="N113" t="s">
+        <v>38</v>
+      </c>
+      <c r="O113" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E114">
         <v>32.751750100000002</v>
@@ -4389,7 +5935,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -4397,16 +5943,28 @@
       <c r="J114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K114" t="s">
+        <v>159</v>
+      </c>
+      <c r="L114" t="s">
+        <v>179</v>
+      </c>
+      <c r="N114" t="s">
+        <v>38</v>
+      </c>
+      <c r="O114" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D115" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E115">
         <v>37.1824461</v>
@@ -4418,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -4426,16 +5984,28 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K115" t="s">
+        <v>159</v>
+      </c>
+      <c r="L115" t="s">
+        <v>180</v>
+      </c>
+      <c r="N115" t="s">
+        <v>38</v>
+      </c>
+      <c r="O115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E116">
         <v>39.602910799999997</v>
@@ -4447,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -4455,19 +6025,31 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K116" t="s">
+        <v>159</v>
+      </c>
+      <c r="L116" t="s">
+        <v>181</v>
+      </c>
+      <c r="N116" t="s">
+        <v>38</v>
+      </c>
+      <c r="O116" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="D117" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E117">
         <v>37.739339800000003</v>
@@ -4479,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="H117" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -4487,16 +6069,31 @@
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K117" t="s">
+        <v>159</v>
+      </c>
+      <c r="L117" t="s">
+        <v>182</v>
+      </c>
+      <c r="M117" t="s">
+        <v>165</v>
+      </c>
+      <c r="N117" t="s">
+        <v>38</v>
+      </c>
+      <c r="O117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E118">
         <v>37.137580800000002</v>
@@ -4508,7 +6105,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -4516,16 +6113,28 @@
       <c r="J118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K118" t="s">
+        <v>159</v>
+      </c>
+      <c r="L118" t="s">
+        <v>183</v>
+      </c>
+      <c r="N118" t="s">
+        <v>38</v>
+      </c>
+      <c r="O118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E119">
         <v>41.149451200000001</v>
@@ -4537,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -4545,16 +6154,28 @@
       <c r="J119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K119" t="s">
+        <v>159</v>
+      </c>
+      <c r="L119" t="s">
+        <v>184</v>
+      </c>
+      <c r="N119" t="s">
+        <v>38</v>
+      </c>
+      <c r="O119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E120">
         <v>37.126249299999998</v>
@@ -4566,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -4574,16 +6195,28 @@
       <c r="J120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K120" t="s">
+        <v>159</v>
+      </c>
+      <c r="L120" t="s">
+        <v>185</v>
+      </c>
+      <c r="N120" t="s">
+        <v>38</v>
+      </c>
+      <c r="O120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="D121" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E121">
         <v>38.343636500000002</v>
@@ -4595,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -4603,16 +6236,28 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K121" t="s">
+        <v>189</v>
+      </c>
+      <c r="L121" t="s">
+        <v>187</v>
+      </c>
+      <c r="N121" t="s">
+        <v>38</v>
+      </c>
+      <c r="O121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B122" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E122">
         <v>36.841419700000003</v>
@@ -4624,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -4632,16 +6277,28 @@
       <c r="J122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K122" t="s">
+        <v>189</v>
+      </c>
+      <c r="L122" t="s">
+        <v>190</v>
+      </c>
+      <c r="N122" t="s">
+        <v>38</v>
+      </c>
+      <c r="O122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B123" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="D123" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E123">
         <v>36.732869899999997</v>
@@ -4658,16 +6315,28 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K123" t="s">
+        <v>189</v>
+      </c>
+      <c r="L123" t="s">
+        <v>191</v>
+      </c>
+      <c r="N123" t="s">
+        <v>38</v>
+      </c>
+      <c r="O123" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E124">
         <v>38.602824499999997</v>
@@ -4684,16 +6353,28 @@
       <c r="J124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K124" t="s">
+        <v>189</v>
+      </c>
+      <c r="L124" t="s">
+        <v>192</v>
+      </c>
+      <c r="N124" t="s">
+        <v>38</v>
+      </c>
+      <c r="O124" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E125">
         <v>41.382893899999999</v>
@@ -4705,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -4713,16 +6394,28 @@
       <c r="J125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K125" t="s">
+        <v>189</v>
+      </c>
+      <c r="L125" t="s">
+        <v>193</v>
+      </c>
+      <c r="N125" t="s">
+        <v>38</v>
+      </c>
+      <c r="O125" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>194</v>
       </c>
       <c r="D126" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E126">
         <v>36.594518999999998</v>
@@ -4739,16 +6432,28 @@
       <c r="J126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K126" t="s">
+        <v>189</v>
+      </c>
+      <c r="L126" t="s">
+        <v>194</v>
+      </c>
+      <c r="N126" t="s">
+        <v>38</v>
+      </c>
+      <c r="O126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B127" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D127" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E127">
         <v>38.540625499999997</v>
@@ -4765,16 +6470,28 @@
       <c r="J127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K127" t="s">
+        <v>189</v>
+      </c>
+      <c r="L127" t="s">
+        <v>195</v>
+      </c>
+      <c r="N127" t="s">
+        <v>38</v>
+      </c>
+      <c r="O127" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B128" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E128">
         <v>43.263001799999998</v>
@@ -4786,7 +6503,7 @@
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -4794,16 +6511,28 @@
       <c r="J128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K128" t="s">
+        <v>189</v>
+      </c>
+      <c r="L128" t="s">
+        <v>196</v>
+      </c>
+      <c r="N128" t="s">
+        <v>38</v>
+      </c>
+      <c r="O128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="D129" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E129">
         <v>41.675617799999998</v>
@@ -4820,16 +6549,28 @@
       <c r="J129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K129" t="s">
+        <v>189</v>
+      </c>
+      <c r="L129" t="s">
+        <v>197</v>
+      </c>
+      <c r="N129" t="s">
+        <v>38</v>
+      </c>
+      <c r="O129" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E130">
         <v>36.526246299999997</v>
@@ -4841,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -4849,16 +6590,28 @@
       <c r="J130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K130" t="s">
+        <v>189</v>
+      </c>
+      <c r="L130" t="s">
+        <v>198</v>
+      </c>
+      <c r="N130" t="s">
+        <v>38</v>
+      </c>
+      <c r="O130" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E131">
         <v>41.6132925</v>
@@ -4875,16 +6628,28 @@
       <c r="J131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131" t="s">
+        <v>189</v>
+      </c>
+      <c r="L131" t="s">
+        <v>199</v>
+      </c>
+      <c r="N131" t="s">
+        <v>38</v>
+      </c>
+      <c r="O131" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B132" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E132">
         <v>38.644325199999997</v>
@@ -4901,16 +6666,28 @@
       <c r="J132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K132" t="s">
+        <v>189</v>
+      </c>
+      <c r="L132" t="s">
+        <v>200</v>
+      </c>
+      <c r="N132" t="s">
+        <v>38</v>
+      </c>
+      <c r="O132" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="D133" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E133">
         <v>41.067942299999999</v>
@@ -4927,16 +6704,28 @@
       <c r="J133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K133" t="s">
+        <v>189</v>
+      </c>
+      <c r="L133" t="s">
+        <v>201</v>
+      </c>
+      <c r="N133" t="s">
+        <v>38</v>
+      </c>
+      <c r="O133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="D134" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E134">
         <v>40.140824700000003</v>
@@ -4953,16 +6742,28 @@
       <c r="J134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K134" t="s">
+        <v>189</v>
+      </c>
+      <c r="L134" t="s">
+        <v>202</v>
+      </c>
+      <c r="N134" t="s">
+        <v>38</v>
+      </c>
+      <c r="O134" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B135" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E135">
         <v>37.884581300000001</v>
@@ -4974,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -4982,16 +6783,28 @@
       <c r="J135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K135" t="s">
+        <v>189</v>
+      </c>
+      <c r="L135" t="s">
+        <v>203</v>
+      </c>
+      <c r="N135" t="s">
+        <v>38</v>
+      </c>
+      <c r="O135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E136">
         <v>28.086983100000001</v>
@@ -5008,16 +6821,28 @@
       <c r="J136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K136" t="s">
+        <v>189</v>
+      </c>
+      <c r="L136" t="s">
+        <v>204</v>
+      </c>
+      <c r="N136" t="s">
+        <v>38</v>
+      </c>
+      <c r="O136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D137" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E137">
         <v>38.8408382</v>
@@ -5034,16 +6859,28 @@
       <c r="J137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K137" t="s">
+        <v>189</v>
+      </c>
+      <c r="L137" t="s">
+        <v>205</v>
+      </c>
+      <c r="N137" t="s">
+        <v>38</v>
+      </c>
+      <c r="O137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E138">
         <v>36.426806800000001</v>
@@ -5060,16 +6897,28 @@
       <c r="J138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K138" t="s">
+        <v>189</v>
+      </c>
+      <c r="L138" t="s">
+        <v>206</v>
+      </c>
+      <c r="N138" t="s">
+        <v>38</v>
+      </c>
+      <c r="O138" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B139" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E139">
         <v>38.5679236</v>
@@ -5086,16 +6935,28 @@
       <c r="J139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K139" t="s">
+        <v>189</v>
+      </c>
+      <c r="L139" t="s">
+        <v>207</v>
+      </c>
+      <c r="N139" t="s">
+        <v>38</v>
+      </c>
+      <c r="O139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B140" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E140">
         <v>36.538839799999998</v>
@@ -5112,16 +6973,28 @@
       <c r="J140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K140" t="s">
+        <v>189</v>
+      </c>
+      <c r="L140" t="s">
+        <v>208</v>
+      </c>
+      <c r="N140" t="s">
+        <v>38</v>
+      </c>
+      <c r="O140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D141" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E141">
         <v>28.400376850000001</v>
@@ -5133,7 +7006,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -5141,16 +7014,28 @@
       <c r="J141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K141" t="s">
+        <v>189</v>
+      </c>
+      <c r="L141" t="s">
+        <v>209</v>
+      </c>
+      <c r="N141" t="s">
+        <v>38</v>
+      </c>
+      <c r="O141" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="D142" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E142">
         <v>41.979300600000002</v>
@@ -5167,16 +7052,28 @@
       <c r="J142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K142" t="s">
+        <v>189</v>
+      </c>
+      <c r="L142" t="s">
+        <v>210</v>
+      </c>
+      <c r="N142" t="s">
+        <v>38</v>
+      </c>
+      <c r="O142" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B143" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="D143" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E143">
         <v>27.9580004</v>
@@ -5188,24 +7085,36 @@
         <v>2</v>
       </c>
       <c r="H143" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>189</v>
+      </c>
+      <c r="L143" t="s">
+        <v>211</v>
+      </c>
+      <c r="N143" t="s">
+        <v>38</v>
+      </c>
+      <c r="O143" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E144">
         <v>40.116633100000001</v>
@@ -5217,7 +7126,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -5225,16 +7134,28 @@
       <c r="J144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K144" t="s">
+        <v>189</v>
+      </c>
+      <c r="L144" t="s">
+        <v>212</v>
+      </c>
+      <c r="N144" t="s">
+        <v>38</v>
+      </c>
+      <c r="O144" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="D145" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E145">
         <v>38.974390099999987</v>
@@ -5246,24 +7167,36 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>189</v>
+      </c>
+      <c r="L145" t="s">
+        <v>213</v>
+      </c>
+      <c r="N145" t="s">
+        <v>38</v>
+      </c>
+      <c r="O145" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="D146" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E146">
         <v>38.789380399999999</v>
@@ -5275,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -5283,16 +7216,28 @@
       <c r="J146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K146" t="s">
+        <v>189</v>
+      </c>
+      <c r="L146" t="s">
+        <v>214</v>
+      </c>
+      <c r="N146" t="s">
+        <v>38</v>
+      </c>
+      <c r="O146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E147">
         <v>29.039708050000002</v>
@@ -5304,7 +7249,7 @@
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -5312,16 +7257,28 @@
       <c r="J147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K147" t="s">
+        <v>189</v>
+      </c>
+      <c r="L147" t="s">
+        <v>215</v>
+      </c>
+      <c r="N147" t="s">
+        <v>38</v>
+      </c>
+      <c r="O147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E148">
         <v>41.697350299999997</v>
@@ -5333,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -5341,16 +7298,28 @@
       <c r="J148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K148" t="s">
+        <v>189</v>
+      </c>
+      <c r="L148" t="s">
+        <v>216</v>
+      </c>
+      <c r="N148" t="s">
+        <v>38</v>
+      </c>
+      <c r="O148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="D149" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E149">
         <v>40.416704699999997</v>
@@ -5362,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -5370,16 +7339,28 @@
       <c r="J149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K149" t="s">
+        <v>189</v>
+      </c>
+      <c r="L149" t="s">
+        <v>217</v>
+      </c>
+      <c r="N149" t="s">
+        <v>38</v>
+      </c>
+      <c r="O149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="D150" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E150">
         <v>36.721302799999997</v>
@@ -5391,24 +7372,36 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>189</v>
+      </c>
+      <c r="L150" t="s">
+        <v>218</v>
+      </c>
+      <c r="N150" t="s">
+        <v>38</v>
+      </c>
+      <c r="O150" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="D151" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E151">
         <v>36.508975999999997</v>
@@ -5420,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -5428,16 +7421,28 @@
       <c r="J151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K151" t="s">
+        <v>189</v>
+      </c>
+      <c r="L151" t="s">
+        <v>219</v>
+      </c>
+      <c r="N151" t="s">
+        <v>38</v>
+      </c>
+      <c r="O151" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E152">
         <v>27.752773099999999</v>
@@ -5449,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -5457,16 +7462,28 @@
       <c r="J152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K152" t="s">
+        <v>189</v>
+      </c>
+      <c r="L152" t="s">
+        <v>220</v>
+      </c>
+      <c r="N152" t="s">
+        <v>38</v>
+      </c>
+      <c r="O152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E153">
         <v>37.598444600000001</v>
@@ -5478,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -5486,16 +7503,28 @@
       <c r="J153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K153" t="s">
+        <v>189</v>
+      </c>
+      <c r="L153" t="s">
+        <v>221</v>
+      </c>
+      <c r="N153" t="s">
+        <v>38</v>
+      </c>
+      <c r="O153" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E154">
         <v>36.595747099999997</v>
@@ -5512,16 +7541,28 @@
       <c r="J154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K154" t="s">
+        <v>189</v>
+      </c>
+      <c r="L154" t="s">
+        <v>222</v>
+      </c>
+      <c r="N154" t="s">
+        <v>38</v>
+      </c>
+      <c r="O154" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="D155" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E155">
         <v>37.992379499999998</v>
@@ -5533,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -5541,16 +7582,28 @@
       <c r="J155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K155" t="s">
+        <v>189</v>
+      </c>
+      <c r="L155" t="s">
+        <v>223</v>
+      </c>
+      <c r="N155" t="s">
+        <v>38</v>
+      </c>
+      <c r="O155" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E156">
         <v>36.7468565</v>
@@ -5562,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -5570,16 +7623,28 @@
       <c r="J156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K156" t="s">
+        <v>189</v>
+      </c>
+      <c r="L156" t="s">
+        <v>224</v>
+      </c>
+      <c r="N156" t="s">
+        <v>38</v>
+      </c>
+      <c r="O156" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E157">
         <v>38.085689100000003</v>
@@ -5596,16 +7661,28 @@
       <c r="J157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K157" t="s">
+        <v>189</v>
+      </c>
+      <c r="L157" t="s">
+        <v>225</v>
+      </c>
+      <c r="N157" t="s">
+        <v>38</v>
+      </c>
+      <c r="O157" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D158" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>39.569581800000002</v>
@@ -5617,24 +7694,36 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="K158" t="s">
+        <v>189</v>
+      </c>
+      <c r="L158" t="s">
+        <v>226</v>
+      </c>
+      <c r="N158" t="s">
+        <v>38</v>
+      </c>
+      <c r="O158" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E159">
         <v>28.028811399999999</v>
@@ -5646,7 +7735,7 @@
         <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -5654,16 +7743,28 @@
       <c r="J159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K159" t="s">
+        <v>189</v>
+      </c>
+      <c r="L159" t="s">
+        <v>227</v>
+      </c>
+      <c r="N159" t="s">
+        <v>38</v>
+      </c>
+      <c r="O159" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E160">
         <v>38.087174699999998</v>
@@ -5680,16 +7781,28 @@
       <c r="J160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K160" t="s">
+        <v>189</v>
+      </c>
+      <c r="L160" t="s">
+        <v>228</v>
+      </c>
+      <c r="N160" t="s">
+        <v>38</v>
+      </c>
+      <c r="O160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B161" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="D161" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E161">
         <v>41.076819299999997</v>
@@ -5701,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -5709,19 +7822,31 @@
       <c r="J161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K161" t="s">
+        <v>189</v>
+      </c>
+      <c r="L161" t="s">
+        <v>229</v>
+      </c>
+      <c r="N161" t="s">
+        <v>38</v>
+      </c>
+      <c r="O161" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E162">
         <v>28.467178000000001</v>
@@ -5733,7 +7858,7 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -5741,16 +7866,31 @@
       <c r="J162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K162" t="s">
+        <v>189</v>
+      </c>
+      <c r="L162" t="s">
+        <v>230</v>
+      </c>
+      <c r="M162" t="s">
+        <v>231</v>
+      </c>
+      <c r="N162" t="s">
+        <v>38</v>
+      </c>
+      <c r="O162" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E163">
         <v>37.388630300000003</v>
@@ -5762,7 +7902,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -5770,16 +7910,28 @@
       <c r="J163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K163" t="s">
+        <v>189</v>
+      </c>
+      <c r="L163" t="s">
+        <v>233</v>
+      </c>
+      <c r="N163" t="s">
+        <v>38</v>
+      </c>
+      <c r="O163" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E164">
         <v>41.236670699999998</v>
@@ -5796,16 +7948,28 @@
       <c r="J164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K164" t="s">
+        <v>189</v>
+      </c>
+      <c r="L164" t="s">
+        <v>234</v>
+      </c>
+      <c r="N164" t="s">
+        <v>38</v>
+      </c>
+      <c r="O164" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E165">
         <v>41.117236400000003</v>
@@ -5822,16 +7986,28 @@
       <c r="J165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K165" t="s">
+        <v>189</v>
+      </c>
+      <c r="L165" t="s">
+        <v>235</v>
+      </c>
+      <c r="N165" t="s">
+        <v>38</v>
+      </c>
+      <c r="O165" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B166" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E166">
         <v>28.293578499999999</v>
@@ -5843,7 +8019,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -5851,16 +8027,28 @@
       <c r="J166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K166" t="s">
+        <v>189</v>
+      </c>
+      <c r="L166" t="s">
+        <v>231</v>
+      </c>
+      <c r="N166" t="s">
+        <v>38</v>
+      </c>
+      <c r="O166" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="D167" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E167">
         <v>36.624284099999997</v>
@@ -5877,16 +8065,28 @@
       <c r="J167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K167" t="s">
+        <v>189</v>
+      </c>
+      <c r="L167" t="s">
+        <v>236</v>
+      </c>
+      <c r="N167" t="s">
+        <v>38</v>
+      </c>
+      <c r="O167" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E168">
         <v>37.977541600000002</v>
@@ -5903,16 +8103,28 @@
       <c r="J168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K168" t="s">
+        <v>189</v>
+      </c>
+      <c r="L168" t="s">
+        <v>237</v>
+      </c>
+      <c r="N168" t="s">
+        <v>38</v>
+      </c>
+      <c r="O168" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="D169" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <v>36.7494528</v>
@@ -5924,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -5932,16 +8144,28 @@
       <c r="J169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K169" t="s">
+        <v>189</v>
+      </c>
+      <c r="L169" t="s">
+        <v>238</v>
+      </c>
+      <c r="N169" t="s">
+        <v>38</v>
+      </c>
+      <c r="O169" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>239</v>
       </c>
       <c r="D170" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E170">
         <v>39.469706500000001</v>
@@ -5953,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -5961,16 +8185,28 @@
       <c r="J170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K170" t="s">
+        <v>189</v>
+      </c>
+      <c r="L170" t="s">
+        <v>239</v>
+      </c>
+      <c r="N170" t="s">
+        <v>38</v>
+      </c>
+      <c r="O170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B171" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="D171" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E171">
         <v>38.510077799999998</v>
@@ -5987,16 +8223,28 @@
       <c r="J171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K171" t="s">
+        <v>189</v>
+      </c>
+      <c r="L171" t="s">
+        <v>240</v>
+      </c>
+      <c r="N171" t="s">
+        <v>38</v>
+      </c>
+      <c r="O171" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="D172" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>36.886572800000003</v>
@@ -6008,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -6016,16 +8264,28 @@
       <c r="J172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K172" t="s">
+        <v>243</v>
+      </c>
+      <c r="L172" t="s">
+        <v>242</v>
+      </c>
+      <c r="N172" t="s">
+        <v>82</v>
+      </c>
+      <c r="O172" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E173">
         <v>39.716043900000003</v>
@@ -6037,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -6045,16 +8305,28 @@
       <c r="J173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K173" t="s">
+        <v>243</v>
+      </c>
+      <c r="L173" t="s">
+        <v>244</v>
+      </c>
+      <c r="N173" t="s">
+        <v>82</v>
+      </c>
+      <c r="O173" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B174" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="D174" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E174">
         <v>36.886572800000003</v>
@@ -6066,7 +8338,7 @@
         <v>1</v>
       </c>
       <c r="H174" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -6074,16 +8346,28 @@
       <c r="J174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K174" t="s">
+        <v>243</v>
+      </c>
+      <c r="L174" t="s">
+        <v>245</v>
+      </c>
+      <c r="N174" t="s">
+        <v>82</v>
+      </c>
+      <c r="O174" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E175">
         <v>36.863345899999999</v>
@@ -6095,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -6103,16 +8387,28 @@
       <c r="J175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K175" t="s">
+        <v>243</v>
+      </c>
+      <c r="L175" t="s">
+        <v>246</v>
+      </c>
+      <c r="N175" t="s">
+        <v>82</v>
+      </c>
+      <c r="O175" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E176">
         <v>37.034398699999997</v>
@@ -6124,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -6132,16 +8428,28 @@
       <c r="J176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K176" t="s">
+        <v>243</v>
+      </c>
+      <c r="L176" t="s">
+        <v>247</v>
+      </c>
+      <c r="N176" t="s">
+        <v>82</v>
+      </c>
+      <c r="O176" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B177" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D177" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E177">
         <v>36.8350176</v>
@@ -6153,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -6161,16 +8469,28 @@
       <c r="J177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K177" t="s">
+        <v>243</v>
+      </c>
+      <c r="L177" t="s">
+        <v>248</v>
+      </c>
+      <c r="N177" t="s">
+        <v>82</v>
+      </c>
+      <c r="O177" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B178" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
       <c r="D178" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E178">
         <v>37.376916700000002</v>
@@ -6182,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -6190,16 +8510,28 @@
       <c r="J178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K178" t="s">
+        <v>243</v>
+      </c>
+      <c r="L178" t="s">
+        <v>249</v>
+      </c>
+      <c r="N178" t="s">
+        <v>82</v>
+      </c>
+      <c r="O178" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B179" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D179" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E179">
         <v>36.622101899999997</v>
@@ -6211,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -6219,16 +8551,28 @@
       <c r="J179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K179" t="s">
+        <v>243</v>
+      </c>
+      <c r="L179" t="s">
+        <v>250</v>
+      </c>
+      <c r="N179" t="s">
+        <v>82</v>
+      </c>
+      <c r="O179" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B180" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="D180" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E180">
         <v>38.074050800000002</v>
@@ -6240,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I180">
         <v>0</v>
@@ -6248,16 +8592,28 @@
       <c r="J180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K180" t="s">
+        <v>243</v>
+      </c>
+      <c r="L180" t="s">
+        <v>251</v>
+      </c>
+      <c r="N180" t="s">
+        <v>82</v>
+      </c>
+      <c r="O180" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="D181" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E181">
         <v>41.0766019</v>
@@ -6269,7 +8625,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -6277,16 +8633,28 @@
       <c r="J181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K181" t="s">
+        <v>243</v>
+      </c>
+      <c r="L181" t="s">
+        <v>252</v>
+      </c>
+      <c r="N181" t="s">
+        <v>82</v>
+      </c>
+      <c r="O181" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B182" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="D182" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E182">
         <v>36.265272099999997</v>
@@ -6298,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -6306,16 +8674,28 @@
       <c r="J182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K182" t="s">
+        <v>243</v>
+      </c>
+      <c r="L182" t="s">
+        <v>253</v>
+      </c>
+      <c r="N182" t="s">
+        <v>82</v>
+      </c>
+      <c r="O182" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B183" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
       <c r="D183" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <v>36.199375199999999</v>
@@ -6327,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -6335,16 +8715,28 @@
       <c r="J183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K183" t="s">
+        <v>243</v>
+      </c>
+      <c r="L183" t="s">
+        <v>254</v>
+      </c>
+      <c r="N183" t="s">
+        <v>82</v>
+      </c>
+      <c r="O183" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="D184" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E184">
         <v>36.601382299999997</v>
@@ -6356,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -6364,16 +8756,28 @@
       <c r="J184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K184" t="s">
+        <v>243</v>
+      </c>
+      <c r="L184" t="s">
+        <v>255</v>
+      </c>
+      <c r="N184" t="s">
+        <v>82</v>
+      </c>
+      <c r="O184" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B185" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <v>37.863239800000002</v>
@@ -6385,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -6393,16 +8797,28 @@
       <c r="J185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K185" t="s">
+        <v>243</v>
+      </c>
+      <c r="L185" t="s">
+        <v>256</v>
+      </c>
+      <c r="N185" t="s">
+        <v>82</v>
+      </c>
+      <c r="O185" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B186" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="D186" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E186">
         <v>36.854999999999997</v>
@@ -6414,7 +8830,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -6422,16 +8838,28 @@
       <c r="J186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K186" t="s">
+        <v>243</v>
+      </c>
+      <c r="L186" t="s">
+        <v>257</v>
+      </c>
+      <c r="N186" t="s">
+        <v>82</v>
+      </c>
+      <c r="O186" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="D187" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>40.416859799999997</v>
@@ -6443,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="H187" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -6451,16 +8879,28 @@
       <c r="J187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K187" t="s">
+        <v>243</v>
+      </c>
+      <c r="L187" t="s">
+        <v>258</v>
+      </c>
+      <c r="N187" t="s">
+        <v>82</v>
+      </c>
+      <c r="O187" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B188" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="D188" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E188">
         <v>36.712991100000004</v>
@@ -6472,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -6480,16 +8920,28 @@
       <c r="J188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188" t="s">
+        <v>243</v>
+      </c>
+      <c r="L188" t="s">
+        <v>259</v>
+      </c>
+      <c r="N188" t="s">
+        <v>82</v>
+      </c>
+      <c r="O188" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="B189" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E189">
         <v>36.766443899999999</v>
@@ -6501,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -6509,22 +8961,40 @@
       <c r="J189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K189" t="s">
+        <v>243</v>
+      </c>
+      <c r="L189" t="s">
+        <v>260</v>
+      </c>
+      <c r="N189" t="s">
+        <v>82</v>
+      </c>
+      <c r="O189" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="D190" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="E190">
+        <v>42.882737599999999</v>
+      </c>
+      <c r="F190">
+        <v>-8.5381682172038076</v>
       </c>
       <c r="G190">
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I190">
         <v>0</v>
@@ -6532,11 +9002,758 @@
       <c r="J190">
         <v>0</v>
       </c>
+      <c r="K190" t="s">
+        <v>189</v>
+      </c>
+      <c r="L190" t="s">
+        <v>261</v>
+      </c>
+      <c r="N190" t="s">
+        <v>38</v>
+      </c>
+      <c r="O190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>150</v>
+      </c>
+      <c r="B191" t="s">
+        <v>262</v>
+      </c>
+      <c r="D191" t="s">
+        <v>263</v>
+      </c>
+      <c r="E191">
+        <v>51.416297499999999</v>
+      </c>
+      <c r="F191">
+        <v>3.7028061000000001</v>
+      </c>
+      <c r="G191">
+        <v>1</v>
+      </c>
+      <c r="H191" t="s">
+        <v>18</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191" t="s">
+        <v>152</v>
+      </c>
+      <c r="L191" t="s">
+        <v>262</v>
+      </c>
+      <c r="N191" t="s">
+        <v>38</v>
+      </c>
+      <c r="O191" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>150</v>
+      </c>
+      <c r="B192" t="s">
+        <v>264</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192">
+        <v>52.373079599999997</v>
+      </c>
+      <c r="F192">
+        <v>4.8924534</v>
+      </c>
+      <c r="G192">
+        <v>1</v>
+      </c>
+      <c r="H192" t="s">
+        <v>51</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192" t="s">
+        <v>152</v>
+      </c>
+      <c r="L192" t="s">
+        <v>264</v>
+      </c>
+      <c r="N192" t="s">
+        <v>38</v>
+      </c>
+      <c r="O192" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>150</v>
+      </c>
+      <c r="B193" t="s">
+        <v>265</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193">
+        <v>52.090700599999998</v>
+      </c>
+      <c r="F193">
+        <v>5.1215634000000003</v>
+      </c>
+      <c r="G193">
+        <v>1</v>
+      </c>
+      <c r="H193" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193" t="s">
+        <v>152</v>
+      </c>
+      <c r="L193" t="s">
+        <v>265</v>
+      </c>
+      <c r="N193" t="s">
+        <v>38</v>
+      </c>
+      <c r="O193" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>150</v>
+      </c>
+      <c r="B194" t="s">
+        <v>266</v>
+      </c>
+      <c r="D194" t="s">
+        <v>267</v>
+      </c>
+      <c r="E194">
+        <v>53.076785399999999</v>
+      </c>
+      <c r="F194">
+        <v>4.9057570150330667</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194" t="s">
+        <v>57</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194" t="s">
+        <v>152</v>
+      </c>
+      <c r="L194" t="s">
+        <v>266</v>
+      </c>
+      <c r="N194" t="s">
+        <v>38</v>
+      </c>
+      <c r="O194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" t="s">
+        <v>268</v>
+      </c>
+      <c r="D195" t="s">
+        <v>267</v>
+      </c>
+      <c r="E195">
+        <v>53.3339055</v>
+      </c>
+      <c r="F195">
+        <v>5.3514908756995938</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>66</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195" t="s">
+        <v>152</v>
+      </c>
+      <c r="L195" t="s">
+        <v>268</v>
+      </c>
+      <c r="N195" t="s">
+        <v>38</v>
+      </c>
+      <c r="O195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>150</v>
+      </c>
+      <c r="B196" t="s">
+        <v>269</v>
+      </c>
+      <c r="D196" t="s">
+        <v>267</v>
+      </c>
+      <c r="E196">
+        <v>53.406347199999999</v>
+      </c>
+      <c r="F196">
+        <v>5.7482500208256093</v>
+      </c>
+      <c r="G196">
+        <v>1</v>
+      </c>
+      <c r="H196" t="s">
+        <v>66</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196" t="s">
+        <v>152</v>
+      </c>
+      <c r="L196" t="s">
+        <v>269</v>
+      </c>
+      <c r="N196" t="s">
+        <v>38</v>
+      </c>
+      <c r="O196" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>150</v>
+      </c>
+      <c r="B197" t="s">
+        <v>270</v>
+      </c>
+      <c r="D197" t="s">
+        <v>267</v>
+      </c>
+      <c r="E197">
+        <v>53.202995000000001</v>
+      </c>
+      <c r="F197">
+        <v>4.9949133832806858</v>
+      </c>
+      <c r="G197">
+        <v>1</v>
+      </c>
+      <c r="H197" t="s">
+        <v>57</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197" t="s">
+        <v>152</v>
+      </c>
+      <c r="L197" t="s">
+        <v>270</v>
+      </c>
+      <c r="N197" t="s">
+        <v>38</v>
+      </c>
+      <c r="O197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>150</v>
+      </c>
+      <c r="B198" t="s">
+        <v>271</v>
+      </c>
+      <c r="D198" t="s">
+        <v>267</v>
+      </c>
+      <c r="E198">
+        <v>53.4787891</v>
+      </c>
+      <c r="F198">
+        <v>6.2037718211158426</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>34</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198" t="s">
+        <v>152</v>
+      </c>
+      <c r="L198" t="s">
+        <v>271</v>
+      </c>
+      <c r="N198" t="s">
+        <v>38</v>
+      </c>
+      <c r="O198" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>150</v>
+      </c>
+      <c r="B199" t="s">
+        <v>272</v>
+      </c>
+      <c r="D199" t="s">
+        <v>263</v>
+      </c>
+      <c r="E199">
+        <v>52.906792199999998</v>
+      </c>
+      <c r="F199">
+        <v>6.6368422999999996</v>
+      </c>
+      <c r="G199">
+        <v>1</v>
+      </c>
+      <c r="H199" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199" t="s">
+        <v>152</v>
+      </c>
+      <c r="L199" t="s">
+        <v>272</v>
+      </c>
+      <c r="N199" t="s">
+        <v>38</v>
+      </c>
+      <c r="O199" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" t="s">
+        <v>262</v>
+      </c>
+      <c r="D200" t="s">
+        <v>263</v>
+      </c>
+      <c r="E200">
+        <v>51.416297499999999</v>
+      </c>
+      <c r="F200">
+        <v>3.7028061000000001</v>
+      </c>
+      <c r="G200">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>18</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200" t="s">
+        <v>152</v>
+      </c>
+      <c r="L200" t="s">
+        <v>262</v>
+      </c>
+      <c r="N200" t="s">
+        <v>38</v>
+      </c>
+      <c r="O200" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" t="s">
+        <v>273</v>
+      </c>
+      <c r="D201" t="s">
+        <v>263</v>
+      </c>
+      <c r="E201">
+        <v>52.306621700000001</v>
+      </c>
+      <c r="F201">
+        <v>6.6873739341480229</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>152</v>
+      </c>
+      <c r="L201" t="s">
+        <v>273</v>
+      </c>
+      <c r="N201" t="s">
+        <v>38</v>
+      </c>
+      <c r="O201" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" t="s">
+        <v>274</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>50.851243799999999</v>
+      </c>
+      <c r="F202">
+        <v>5.6909767999999996</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>91</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>152</v>
+      </c>
+      <c r="L202" t="s">
+        <v>274</v>
+      </c>
+      <c r="N202" t="s">
+        <v>38</v>
+      </c>
+      <c r="O202" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" t="s">
+        <v>275</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203">
+        <v>50.864753100000001</v>
+      </c>
+      <c r="F203">
+        <v>5.8312518000000004</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203" t="s">
+        <v>188</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>152</v>
+      </c>
+      <c r="L203" t="s">
+        <v>275</v>
+      </c>
+      <c r="N203" t="s">
+        <v>38</v>
+      </c>
+      <c r="O203" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204" t="s">
+        <v>276</v>
+      </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204">
+        <v>51.688938700000001</v>
+      </c>
+      <c r="F204">
+        <v>5.3031160000000002</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>152</v>
+      </c>
+      <c r="L204" t="s">
+        <v>276</v>
+      </c>
+      <c r="N204" t="s">
+        <v>38</v>
+      </c>
+      <c r="O204" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>150</v>
+      </c>
+      <c r="B205" t="s">
+        <v>277</v>
+      </c>
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>53.219065200000003</v>
+      </c>
+      <c r="F205">
+        <v>6.5680076999999999</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205" t="s">
+        <v>18</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205" t="s">
+        <v>152</v>
+      </c>
+      <c r="L205" t="s">
+        <v>277</v>
+      </c>
+      <c r="N205" t="s">
+        <v>38</v>
+      </c>
+      <c r="O205" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>150</v>
+      </c>
+      <c r="B206" t="s">
+        <v>278</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206">
+        <v>51.924442399999997</v>
+      </c>
+      <c r="F206">
+        <v>4.4777500000000003</v>
+      </c>
+      <c r="G206">
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>18</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206" t="s">
+        <v>152</v>
+      </c>
+      <c r="L206" t="s">
+        <v>278</v>
+      </c>
+      <c r="N206" t="s">
+        <v>38</v>
+      </c>
+      <c r="O206" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>150</v>
+      </c>
+      <c r="B207" t="s">
+        <v>279</v>
+      </c>
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207">
+        <v>52.079983800000001</v>
+      </c>
+      <c r="F207">
+        <v>4.3113460999999997</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>57</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207" t="s">
+        <v>152</v>
+      </c>
+      <c r="L207" t="s">
+        <v>280</v>
+      </c>
+      <c r="N207" t="s">
+        <v>38</v>
+      </c>
+      <c r="O207" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>150</v>
+      </c>
+      <c r="B208" t="s">
+        <v>281</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208">
+        <v>52.359522299999988</v>
+      </c>
+      <c r="F208">
+        <v>4.53502585228361</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>57</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>152</v>
+      </c>
+      <c r="L208" t="s">
+        <v>281</v>
+      </c>
+      <c r="N208" t="s">
+        <v>38</v>
+      </c>
+      <c r="O208" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I189">
-    <sortCondition ref="A1:A189"/>
-  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>